--- a/streamlit/dados_brutos/immoscout24_alugar_geneve_20240815.xlsx
+++ b/streamlit/dados_brutos/immoscout24_alugar_geneve_20240815.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,36 @@
           <t>Bel appartement 2 pièces à Genève</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHF 1,300.–</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2 rooms</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25m²</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rue de Lausanne 40, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001389846</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:05</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +513,36 @@
           <t>GRAND APPARTEMENT DE 300 M2 AVEC UNE VUE DÉGAGÉE SUR LE PARC BERTRAND - 3 BALCONS- 5 CHAMBRES</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CHF 10,500.–</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8 rooms</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>300m²</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Florissant 1, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001276358</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:06</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -490,6 +550,36 @@
           <t>Charmant appartement 2pieces a Genève</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHF 950.–</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2 rooms</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37m²</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Rue Jean-Violette 30, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001373804</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:07</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -497,6 +587,36 @@
           <t>Duplex de luxe à proximité du lac</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CHF 7,000.–</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147m²</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1201 Genève</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001346471</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:08</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +624,36 @@
           <t>Très bel appartement 5 pièces dans le quartier de plainpalais</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHF 3,250.–</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94m²</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rue Vignier 5, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001319940</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:09</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -511,6 +661,36 @@
           <t>L'une des plus belles vues de Genève !</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHF 5,895.–</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6.5 rooms</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>154m²</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rue de Lausanne 143, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001369374</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:10</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -518,6 +698,36 @@
           <t>CHARMANT AVEC BEAUCOUP DE LUMINOSITE</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHF 2,500.–</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62m²</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1205 Genève</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001372400</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:11</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -525,6 +735,36 @@
           <t>Luxueux appartement dans nouvelle résidence du Parc des Crêts à Troinex</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHF 4,750.–</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>117m²</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Route de Troinex 65, 1256 Troinex</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001290115</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:12</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -532,6 +772,36 @@
           <t>Nations, bel appartement moderne meublé avec Gym</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CHF 3,500.–</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55m²</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cramer 2, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001378124</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:13</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -539,6 +809,36 @@
           <t>Cosy et paisible appartement à Le Grand-Saconnex</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHF 2,250.–</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2 rooms</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1218 Le Grand-Saconnex</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001372920</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:15</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -546,6 +846,36 @@
           <t>Bel appartement lumineux à deux pas du Forum Meyrin</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHF 1,960.–</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54m²</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Rue des Boudines 23, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001357583</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:16</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -553,6 +883,36 @@
           <t>City-Penthouse en plein coeur des rues basses</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHF 4,850.–</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100m²</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Rue de la Croix-d'Or 27, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001352681</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:17</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -560,6 +920,36 @@
           <t>Logement meublé à Genève</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CHF 3,190.–</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.5 rooms</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>rue Etienne-Dumont 9, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001344400</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:18</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -567,6 +957,36 @@
           <t>Appartement en campagne</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CHF 2,210.–</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>78m²</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Route de Mon-Idée 49, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001333875</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:19</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -574,6 +994,36 @@
           <t>Splendide logement dans le prestigieux quartier de Champel</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CHF 2,900.–</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>69m²</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 35, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001313855</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:20</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -581,6 +1031,36 @@
           <t>Splendide logement dans le prestigieux quartier de Champel</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CHF 2,850.–</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>80m²</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 35, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001287129</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:21</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -588,6 +1068,36 @@
           <t>Splendide logement dans le quartier de Champel</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CHF 2,750.–</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>63m²</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 35, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001232755</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:22</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -595,6 +1105,36 @@
           <t>Bel appartement lumineux</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CHF 2,255.–</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65m²</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Rue des Bossons 26, 1213 Onex</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3003397551</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:23</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -602,6 +1142,36 @@
           <t>Magnifique appartement au centre-ville de Genève ! Terme fixe au 31.08.2026</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CHF 4,870.–</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>105m²</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Rue Charles-Giron 14, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001225099</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:24</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -609,6 +1179,36 @@
           <t>Un projet unique au coeur de Genève</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CHF 5,460.–</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.5 rooms</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>104m²</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Rue du Vieux Collège 3, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000656611</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:25</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -616,6 +1216,36 @@
           <t>Magnificent duplex penthouse with view over the lake and large terraces</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CHF 11,690.–</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9 rooms</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>286m²</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ch. des Cornillons 86, 1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001349361</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:42</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -623,6 +1253,36 @@
           <t>Bernex - Appartement de 5 pièces en pignon et au dernier étage</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CHF 2,550.–</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>95m²</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chemin de Luchepelet 11, 1233 Bernex</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001170687</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:43</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -630,6 +1290,36 @@
           <t>Au coeur du quartier des Etuves, magnifique duplex avec terrasse</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CHF 5,530.–</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>137m²</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rue des Etuves 16 - 18, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001385812</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:44</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -637,6 +1327,36 @@
           <t>Magnifique duplex situé dans le complexe de la Tourelle</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHF 4,550.–</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5.5 rooms</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>145m²</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chemin du Champ d'Anier 9, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001343017</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:45</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -644,6 +1364,36 @@
           <t>Profitez d'un rez de jardin au coeur de Champel</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHF 2,480.–</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>60m²</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Dumas 8, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001312745</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:46</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -651,6 +1401,36 @@
           <t>Superbe appartement meublé dans un quartier dynamique</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CHF 3,200.–</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50m²</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Rue de la Mairie 6, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001312744</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:47</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -658,6 +1438,36 @@
           <t>De l'espace au coeur de Genève pour ce magnifique logement!</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CHF 5,930.–</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7.5 rooms</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>272m²</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Boulevard Helvétique 28, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001300096</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:48</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -665,6 +1475,36 @@
           <t>Appartement de charme en dernier étage</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CHF 3,840.–</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.5 rooms</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>79m²</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rue du Jura 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001243910</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:49</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -672,6 +1512,36 @@
           <t>Magnificent apartment with 3 bedrooms - fully renovated</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CHF 5,405.–</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6.5 rooms</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>154m²</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Ch. des Cornillons 68, 1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001222675</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:51</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -679,6 +1549,36 @@
           <t>Votre nouvelle vie face au lac !</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CHF 4,760.–</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5.5 rooms</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>124m²</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Rue de Lausanne 145, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001111361</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:52</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -686,6 +1586,36 @@
           <t>Superbe appartement meublé - Bail à court terme</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CHF 3,250.–</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>54m²</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Rue de la Mairie 6, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001073764</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:53</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -693,6 +1623,36 @@
           <t>Vivre en hypercentre dans un appartement de standing !</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CHF 5,295.–</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>106m²</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rue de l'Arquebuse 10, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001316418</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:54</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -700,6 +1660,36 @@
           <t>A saisir ! Au coeur de Genève !</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CHF 1,780.–</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2 rooms</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>41m²</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001156178</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:55</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -707,6 +1697,36 @@
           <t>Au coeur de Champel</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHF 3,000.–</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>79m²</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Avenue Calas 7, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001326222</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:56</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -714,6 +1734,36 @@
           <t>Appartement Organisations internationales - quartier calme -</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHF 2,975.–</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>78m²</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Chemin du Champ-Baron 8, 10,12, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001373009</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:57</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -721,6 +1771,36 @@
           <t>Splendide 9 pièces dans quartier résidentiel, récemment rénové</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CHF 6,558.–</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9 rooms</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>184m²</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6 Chemin de la Tourelle, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001352221</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:58</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -728,6 +1808,36 @@
           <t>Superbe appartement en pignon avec terrasse à Carouge</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CHF 4,800.–</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>155m²</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Rue des Caroubiers 12, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001350100</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:32:59</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -735,6 +1845,36 @@
           <t>Appartement contemporain avec terrasse - Carouge</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CHF 4,600.–</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>132m²</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Rue Jacques-Grosselin 26, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001338703</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -742,6 +1882,36 @@
           <t>Appartement meublé avec piscines sur le toit</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CHF 4,100.–</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.5 rooms</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>114m²</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Avenue De-Budé 31, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001291660</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -749,6 +1919,36 @@
           <t>Superbe appartement de réception, vue imprenable</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CHF 7,550.–</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>175m²</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Boulevard Helvétique 16, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001211378</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:02</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -756,6 +1956,36 @@
           <t>Magnifique duplex de 5 pièces proche Lac</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CHF 5,430.–</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>197m²</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Rue François-Bonivard 10, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000994540</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:19</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -763,6 +1993,36 @@
           <t>Splendide logement en duplex à deux pas de la Gare Cornavin</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CHF 4,130.–</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>129m²</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Rue du Mont-Blanc 26, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000765656</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:21</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -770,6 +2030,36 @@
           <t>Villa d'exception avec piscine (Bellevue)</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CHF 14,000.–</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>9 rooms</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>300m²</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Chemin des Tuileries 8, 1293 Bellevue</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000570573</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:22</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -777,6 +2067,36 @@
           <t>Champel - Hôpital</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CHF 3,450.–</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.5 rooms</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>97m²</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Emile-Yung 11, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001372135</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:23</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -784,6 +2104,36 @@
           <t>Möbliertes Zimmer in modernisierter Wohnung an top Lage</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CHF 1,490.–</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1 room</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6m²</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Place du Cirque, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001368573</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:24</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -791,6 +2141,36 @@
           <t>Appartement de 2.5 pièces à louer aux Eaux-Vives,Quai Gustave-Ador 24</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CHF 2,650.–</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2.5 rooms</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>quai Gustave-Ador 24, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001050387</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:25</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -798,6 +2178,36 @@
           <t>Bel appartement de 3 pièces situé au 4ème étage avec ascenseur</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CHF 2,050.–</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Rue du Prieuré 18, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001391514</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:26</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -805,6 +2215,36 @@
           <t>Vivre dans la jolie commune de Chêne Bourg</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CHF 4,470.–</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>7 rooms</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>180m²</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Chemin de la Montagne 100, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001386131</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:27</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -812,6 +2252,36 @@
           <t>Vivre au coeur des Eaux-Vives !</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CHF 3,106.–</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>53m²</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Rue du 31-Décembre 69, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001372216</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:28</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -819,6 +2289,36 @@
           <t>Charmant appartement - Cologny</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CHF 4,900.–</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Chemin de Planta 61, 1223 Cologny</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001341191</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:29</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -826,6 +2326,36 @@
           <t>DUPLEX EN ATTIQUE DE 5.5 PIÈCES</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CHF 7,200.–</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5.5 rooms</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>173m²</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Chemin du Molan 16 A, 1223 Cologny</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001324863</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:30</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -833,6 +2363,36 @@
           <t>Appartement spacieux et lumineux dans un immeuble récent en plein centre-ville</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CHF 5,000.–</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>132m²</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Rue Adrien-Lachenal 17, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001324121</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:31</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -840,6 +2400,36 @@
           <t>Magnifique appartement - Genève</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CHF 5,500.–</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>6.5 rooms</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Rue Henri-Frédéric-Amiel 9, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001318651</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:32</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -847,6 +2437,36 @@
           <t>Vivre au coeur de Genève dans un appartement de charme</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CHF 4,493.–</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5.5 rooms</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>111m²</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Avenue de Frontenex 5, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001312743</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:33</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -854,6 +2474,36 @@
           <t>Splendide appartement contemporain idéalement situé près du Lac Léman</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CHF 4,780.–</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>143m²</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Rue de la Navigation 3, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001307220</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:35</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -861,6 +2511,36 @@
           <t>Magnifique appartement de 5 pièces au 1er étage à Vandoeuvres</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CHF 5,650.–</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>100m²</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Chemin de Marclay 10, 1253 Vandoeuvres</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001303381</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:36</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -868,6 +2548,36 @@
           <t>Appartement agréable - Genève</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CHF 3,150.–</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Rue du Tir 1, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001275015</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:37</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -875,6 +2585,36 @@
           <t>Magnifique villa - Chêne-Bourg</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CHF 5,180.–</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7 rooms</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Avenue des Grands-Monts 0, 1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001273145</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:38</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -882,6 +2622,36 @@
           <t>Un bel appartement familial ! Bail à terme fixe au 31.12.2027</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CHF 2,760.–</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>71m²</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001259393</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:39</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -889,6 +2659,36 @@
           <t>Belle villa avec jardin et 4 chambres</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CHF 4,700.–</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Chemin Lullin 11B, 1256 Troinex</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001134198</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:33:40</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -896,6 +2696,36 @@
           <t>Appartement de 4 pièces à Champel</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CHF 4,120.–</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>106m²</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Avenue de Champel 4, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001079846</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:00</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -903,6 +2733,36 @@
           <t>Bel appartement avec 2 chambres dans le quartier des Charmilles</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CHF 2,590.–</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>90m²</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 3, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000888729</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:01</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -910,6 +2770,36 @@
           <t>3 pièces dans magnifique immeuble neuf</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CHF 3,020.–</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Chemin Sur Rang 49, 1234 Vessy</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000812058</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:02</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -917,6 +2807,36 @@
           <t>Spacieux appartement aux Charmilles</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CHF 3,330.–</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>110m²</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 1, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4000696265</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:03</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -924,6 +2844,36 @@
           <t>Logement 4,5 pièces avec terrasse en toiture Champel</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CHF 4,800.–</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.5 rooms</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>135m²</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13 Route du Bout-du-Monde, 1206 GENEVE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001274825</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:04</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -931,6 +2881,36 @@
           <t>Très bel appartement avec balcon et magnifique vue sur le Rhône et le jet d'eau</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CHF 2,900.–</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2 rooms</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>50m²</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Quai de la Poste 4, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001384944</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:05</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -938,6 +2918,36 @@
           <t>Très beau 3 pièces en excellent état avec balcon et magnifique vue sur le Rhône et le jet d'eau.</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CHF 3,620.–</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3 rooms</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>73m²</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Quai de la Poste 4, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001384943</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:06</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -945,6 +2955,36 @@
           <t>Appartement en attique avec beaucoup de cachet. Grande terrasse avec vue sur le Rhône</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CHF 4,650.–</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2.5 rooms</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>101m²</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Quai de la Poste 4, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001384942</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:07</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -952,6 +2992,36 @@
           <t>Quartier des Organisations internationales, 4 pièces traversant</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CHF 2,550.–</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>83m²</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Rue Chandieu 5, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001380800</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:09</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -959,6 +3029,36 @@
           <t>Sublime duplex dans quartier calme et proche du centre-ville !</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CHF 3,950.–</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>132m²</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Rue de Saint-Jean 32, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001379064</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:10</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -966,6 +3066,36 @@
           <t>Magnifique appartement au coeur des Charmilles</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CHF 2,464.–</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4 rooms</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>80m²</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 3, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001372175</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:11</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -973,6 +3103,36 @@
           <t>Neuf - bel appartement dans une rue résidentielle à Meyrin</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CHF 5,100.–</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>124m²</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Chemin Marais-Long 28, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001356400</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:12</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -980,6 +3140,36 @@
           <t>Appartement agréable - Thônex</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CHF 2,900.–</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>6 rooms</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Route de Jussy 16B, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001353843</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:13</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -987,351 +3177,37 @@
           <t>Appartement de 5 pièces spacieux, avec balcons</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Logement moderne au sein de l'écoquartier des Vergers</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Bel appartement de 5 pièces, situé dans un cadre verdoyant et calme, proche de toutes commodités.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Très bel appartement créé dans les combles d'un immeuble de 1930, à 5 minutes du quartier de Rive.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Appartement spacieux et lumineux dans un immeuble récent</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Appartement de 4 pièces meublé au coeur de Champel à Genève</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Dans le quartier de Champel à Genève, grand appartement meublé de 4 pièces au 2ème étage</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Appartement spacieux et lumineux de 4 pièces au dernier étage d'un immeuble ancien</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Charmante villa - Vessy</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Beau duplex de 5.5 pièces dans les combles</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Grand appartement à louer !</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>City Pop - Your flexible solution for long and short stays!</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Magnifique appartement - Genève</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Magnific apartement with 4 bedrooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>BEL APPARTEMENT DE 8 PIÈCES TRIPLEX ATTIQUE !</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Appartement 4 pièces au 2ème étage - Place du Temple à Carouge</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Splendide villa individuelle de 10 pièces</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Pâquis : à deux pas du lac</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Charmante villa mitoyenne de 7 pièces à Chambésy</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Eaux-Vives : joli 4 pièces</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Appartement meublé disponible au 15.4.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Agréable Duplex dans villa individuelle avec piscine et pergola au calme absolu</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Charmant attique avec balcon orienté au Sud/Est et belle vue dégagée</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Route de Pressy 5A - Appartement neuf - 4 pièces</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Appartement spacieux et très bien situé</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Maison individuelle de 7 pièces + studio</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Belle rénovation - Spacieux et lumineux</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Quartier de Pinchat - villa individuelle de cinq pièces avec jardin</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Appartement de 6.5 pièces au 8ème étage</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Beau et généreux 3 pièces avec balcon d'environ 18 m² orienté au N/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Spacieux et lumineux 4 pièces avec balcon de 20 m² orienté au S/E</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Bel appartement neuf - lumineux et traversant avec balcon</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Appartement de charme - entièrement rénové - dans l'hypercentre avec vue jet d'eau</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Centre-ville - bel appartement haussmannien avec balcon et vue</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Appartement de prestige - entièrement rénové - magnifique vue sur la rade, le jet d'eau et le Mont-Blanc</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Vieille ville - Bourg-de-Four 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Belle maison mitoyenne - situation calme - orientation Sud-Ouest</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Appartement situé dans le quartier de Champel, proche du parc Bertrand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>18B Ch. du Ruisseau, Villa contemporaine individuelle neuve de 6.5 pièces</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Appartement de 5 pièces avec terrasse au rez-de-chaussée à Champel</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Spacieux 6 pièces à Chêne-Bourg route de Malagnou</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>44 Ch. de la Chevillarde, appartement de 5 pièces</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Maison jumelle de 6 pièces avec jardin à Vésenaz</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Villa contiguë de 6 pièces (3 chambres) avec terrasse et jardin</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Appartement d'exception</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Champel - Immeuble de caractère</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Proche des Bastions - Magnifique loft meublé de 89 m2 au dernier étage</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Superbe 7 pièces lumineux au coeur de Champel Florissant</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Appartement de 5 pièces au 6ème</t>
-        </is>
-      </c>
-    </row>
-    <row r="125"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CHF 4,450.–</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5 rooms</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Route de Chêne 32a, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001352065</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024-08-15 20:34:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
